--- a/Assets/06.Table/OneYearAtten.xlsx
+++ b/Assets/06.Table/OneYearAtten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C20AB-B84B-4E4D-B426-D9AAED79D1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19616290-B0A9-461C-AF89-834D469A15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="OneYearAtten" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:F712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>78750000</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>79000000</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>79250000</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>79400000</v>
@@ -2900,8 +2900,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>316</v>
+      <c r="A104" s="3">
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>79500000</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>79750000</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>80000000</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>80200000</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>80250000</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>80500000</v>
@@ -3032,8 +3032,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>321</v>
+      <c r="A110" s="3">
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>80750000</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>81000000</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>81000000</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>81250000</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>81500000</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>81750000</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>81800000</v>
@@ -3186,8 +3186,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
-        <v>326</v>
+      <c r="A117" s="3">
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>82000000</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>82250000</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>82500000</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>82600000</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>82750000</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>83000000</v>
@@ -3318,8 +3318,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
-        <v>331</v>
+      <c r="A123" s="3">
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>83250000</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>83400000</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>83500000</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>333</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>83750000</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>84000000</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>84200000</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>84250000</v>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
-        <v>336</v>
+      <c r="A130" s="3">
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>84500000</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>84750000</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>85000000</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>85000000</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>85250000</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>85500000</v>
@@ -3616,8 +3616,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
-        <v>341</v>
+      <c r="A136" s="3">
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>85750000</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>85800000</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>86000000</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>86250000</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>86500000</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>86600000</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>86750000</v>
@@ -3770,8 +3770,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="5">
-        <v>346</v>
+      <c r="A143" s="3">
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>87000000</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>87250000</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>87400000</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>87500000</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>87750000</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>88000000</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>88200000</v>
@@ -3924,8 +3924,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
-        <v>351</v>
+      <c r="A150" s="3">
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>88250000</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>88500000</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>88750000</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>89000000</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>89000000</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>89250000</v>
@@ -4056,8 +4056,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="5">
-        <v>356</v>
+      <c r="A156" s="3">
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>89500000</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>89750000</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>89800000</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>358</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>90000000</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>90250000</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>90500000</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>90600000</v>
@@ -4210,8 +4210,8 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="5">
-        <v>361</v>
+      <c r="A163" s="3">
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>90750000</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>91000000</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>91250000</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>91400000</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>91500000</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>91750000</v>
@@ -4342,8 +4342,8 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="5">
-        <v>366</v>
+      <c r="A169" s="3">
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>92000000</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>92200000</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>92250000</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>92500000</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>92750000</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>93000000</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>93000000</v>
@@ -4496,8 +4496,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="5">
-        <v>371</v>
+      <c r="A176" s="3">
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>93250000</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>93500000</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>93750000</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>93800000</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>94000000</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>94250000</v>
@@ -4628,8 +4628,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="5">
-        <v>376</v>
+      <c r="A182" s="3">
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>94500000</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>94600000</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>377</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>94750000</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>378</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>95000000</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>379</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>95250000</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>95400000</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>95500000</v>
@@ -4782,8 +4782,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="5">
-        <v>381</v>
+      <c r="A189" s="3">
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>95750000</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>96000000</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>96200000</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>96250000</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>96500000</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>385</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>96750000</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>97000000</v>
@@ -4948,8 +4948,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="5">
-        <v>386</v>
+      <c r="A196" s="3">
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>97000000</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>97250000</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>388</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>97500000</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>97750000</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>97800000</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>98000000</v>
@@ -5080,8 +5080,8 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="5">
-        <v>391</v>
+      <c r="A202" s="3">
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>98250000</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>98500000</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>98600000</v>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>393</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>98750000</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>394</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>99000000</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>99250000</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>99400000</v>
@@ -5234,8 +5234,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="5">
-        <v>396</v>
+      <c r="A209" s="3">
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>99500000</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>99750000</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>100000000</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>100200000</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>101000000</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>101800000</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>102600000</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>103400000</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>104200000</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>105000000</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>105800000</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>106600000</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>107400000</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>108200000</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>109000000</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>109800000</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>110600000</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>111400000</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>112200000</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>113000000</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>113800000</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>114600000</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>115400000</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>116200000</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>117000000</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>117800000</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>118600000</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>119400000</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>120200000</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>121000000</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>121800000</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>122600000</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>123400000</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>124200000</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>125000000</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>125800000</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>126600000</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>127400000</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>128200000</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>129000000</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>129800000</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>130600000</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>131400000</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>132200000</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>133000000</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>133800000</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>134600000</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>135400000</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>136200000</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>137000000</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>137800000</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>138600000</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>139400000</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>140200000</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>141000000</v>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>141800000</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>142600000</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>143400000</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>144200000</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>145000000</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>145800000</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>146600000</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>147400000</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>148200000</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>149000000</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>149800000</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>150600000</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>151400000</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>152200000</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>153000000</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>153800000</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>154600000</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>155400000</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>156200000</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>157000000</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>157800000</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>158600000</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>159400000</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>160200000</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>161000000</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>161800000</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>162600000</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>163400000</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>164200000</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>165000000</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>165800000</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>166600000</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>167400000</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>168200000</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>169000000</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>169800000</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>170600000</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>171400000</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>172200000</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>173000000</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>173800000</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>174600000</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>175400000</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>176200000</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>177000000</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>177800000</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>178600000</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>179400000</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>180200000</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>181000000</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>181800000</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>182600000</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>183400000</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>184200000</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>185000000</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>185800000</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>186600000</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>187400000</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>188200000</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>189000000</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>189800000</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>190600000</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>191400000</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>192200000</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>193000000</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>193800000</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>194600000</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>195400000</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>196200000</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>197000000</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>197800000</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>198600000</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>199400000</v>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>200200000</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>201000000</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>201800000</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>202600000</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>203400000</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>204200000</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>205000000</v>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>205800000</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>206600000</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>207400000</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>208200000</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>209000000</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>209800000</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>210600000</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>211400000</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>212200000</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>213000000</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>213800000</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>214600000</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>215400000</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>216200000</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>217000000</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>217800000</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>218600000</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>219400000</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>220200000</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>221000000</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>221800000</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>222600000</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>223400000</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>224200000</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>225000000</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>225800000</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>226600000</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>227400000</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>228200000</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>229000000</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>229800000</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>230600000</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>231400000</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>232200000</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>233000000</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>233800000</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>234600000</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>235400000</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>236200000</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>237000000</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>237800000</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>238600000</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>239400000</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>240200000</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>241000000</v>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>241800000</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>242600000</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>243400000</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>244200000</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>245000000</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>245800000</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>246600000</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>247400000</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>248200000</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>249000000</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>249800000</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>250600000</v>
@@ -16433,7 +16433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138F705B-A1AE-4F47-AEDE-5A721330CAF6}">
   <dimension ref="B5:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -16514,7 +16514,7 @@
         <v>3570000</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G6:G11" si="0">SUM(D7,F7)</f>
+        <f t="shared" ref="G7:G11" si="0">SUM(D7,F7)</f>
         <v>4760000</v>
       </c>
       <c r="H7" s="2">
